--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/INDIANA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/INDIANA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1246"/>
+  <dimension ref="A1:D1240"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C33">
@@ -901,7 +901,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C40">
@@ -966,7 +966,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C45">
@@ -1148,7 +1148,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C59">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C70">
@@ -1608,7 +1608,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C94">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C99">
@@ -1873,7 +1873,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C114">
@@ -2047,7 +2047,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2104,7 +2104,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C131">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C144">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C156">
@@ -2525,7 +2525,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C163">
@@ -2616,12 +2616,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C170">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C174">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C181">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C186">
@@ -2868,7 +2868,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C189">
@@ -2933,7 +2933,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C194">
@@ -2959,7 +2959,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C196">
@@ -3115,7 +3115,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C208">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C215">
@@ -3232,7 +3232,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>San Simón de Guerero</t>
+          <t>San Simón De Guerero</t>
         </is>
       </c>
       <c r="C217">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C232">
@@ -3505,7 +3505,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C238">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C239">
@@ -3531,7 +3531,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C240">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C241">
@@ -3661,7 +3661,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -3705,7 +3705,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C253">
@@ -3718,7 +3718,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C254">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C260">
@@ -3848,7 +3848,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C264">
@@ -3952,7 +3952,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C272">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C275">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C277">
@@ -4043,7 +4043,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C279">
@@ -4056,7 +4056,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C280">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C282">
@@ -4134,7 +4134,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C286">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C290">
@@ -4222,7 +4222,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C292">
@@ -4235,7 +4235,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C293">
@@ -4287,7 +4287,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C297">
@@ -4300,7 +4300,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C298">
@@ -4326,7 +4326,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C300">
@@ -4339,7 +4339,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C301">
@@ -4378,7 +4378,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C304">
@@ -4391,7 +4391,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C305">
@@ -4443,7 +4443,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C309">
@@ -4456,7 +4456,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C310">
@@ -4495,7 +4495,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C313">
@@ -4573,7 +4573,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C319">
@@ -4586,7 +4586,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C320">
@@ -4612,7 +4612,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C322">
@@ -4638,7 +4638,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C324">
@@ -4677,7 +4677,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C327">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C339">
@@ -4859,7 +4859,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C341">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C343">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C345">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C347">
@@ -5059,7 +5059,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C356">
@@ -5124,7 +5124,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C361">
@@ -5176,7 +5176,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C365">
@@ -5215,7 +5215,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C368">
@@ -5241,7 +5241,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C370">
@@ -5280,7 +5280,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C373">
@@ -5345,7 +5345,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C378">
@@ -5358,7 +5358,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C379">
@@ -5371,7 +5371,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C380">
@@ -5397,7 +5397,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C382">
@@ -5410,7 +5410,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C383">
@@ -5449,7 +5449,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C386">
@@ -5462,7 +5462,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C387">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C390">
@@ -5527,7 +5527,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C392">
@@ -5540,7 +5540,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C393">
@@ -5605,7 +5605,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C398">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C399">
@@ -5644,7 +5644,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C401">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C402">
@@ -5701,7 +5701,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C405">
@@ -5753,7 +5753,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C409">
@@ -5766,7 +5766,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C410">
@@ -5805,7 +5805,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C413">
@@ -5896,7 +5896,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Concepción de Buenos Aires</t>
+          <t>Concepción De Buenos Aires</t>
         </is>
       </c>
       <c r="C420">
@@ -5987,7 +5987,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C427">
@@ -6039,7 +6039,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C431">
@@ -6052,7 +6052,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C432">
@@ -6091,7 +6091,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C435">
@@ -6156,7 +6156,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C440">
@@ -6169,7 +6169,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C441">
@@ -6260,7 +6260,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C448">
@@ -6325,7 +6325,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C453">
@@ -6351,7 +6351,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C455">
@@ -6390,7 +6390,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C458">
@@ -6416,7 +6416,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C460">
@@ -6442,7 +6442,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C462">
@@ -6468,7 +6468,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C464">
@@ -6481,7 +6481,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C465">
@@ -6572,7 +6572,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C472">
@@ -6585,7 +6585,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C473">
@@ -6598,7 +6598,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C474">
@@ -6663,7 +6663,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C479">
@@ -6676,7 +6676,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C480">
@@ -6715,7 +6715,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C483">
@@ -6728,7 +6728,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C484">
@@ -7773,7 +7773,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C564">
@@ -8090,7 +8090,7 @@
     <row r="588">
       <c r="B588" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C588">
@@ -8168,7 +8168,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C594">
@@ -8207,7 +8207,7 @@
     <row r="597">
       <c r="B597" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C597">
@@ -8272,7 +8272,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C602">
@@ -8420,7 +8420,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C613">
@@ -8485,7 +8485,7 @@
     <row r="618">
       <c r="B618" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C618">
@@ -8659,7 +8659,7 @@
     <row r="631">
       <c r="B631" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C631">
@@ -8698,7 +8698,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C634">
@@ -8742,7 +8742,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C637">
@@ -8794,7 +8794,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C641">
@@ -8833,7 +8833,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C644">
@@ -8859,7 +8859,7 @@
     <row r="646">
       <c r="B646" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C646">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C647">
@@ -8885,7 +8885,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C648">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C649">
@@ -8911,7 +8911,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C650">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C651">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C652">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C653">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C657">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C658">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C660">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C661">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C662">
@@ -9080,7 +9080,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C663">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C664">
@@ -9119,7 +9119,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C666">
@@ -9132,7 +9132,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C667">
@@ -9145,7 +9145,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C668">
@@ -9314,7 +9314,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C681">
@@ -9483,7 +9483,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C694">
@@ -9990,7 +9990,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C733">
@@ -10497,7 +10497,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C772">
@@ -10575,7 +10575,7 @@
     <row r="778">
       <c r="B778" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C778">
@@ -10588,7 +10588,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C779">
@@ -10601,7 +10601,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C780">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C781">
@@ -10653,7 +10653,7 @@
     <row r="784">
       <c r="B784" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C784">
@@ -10666,7 +10666,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C785">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C786">
@@ -10692,7 +10692,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C787">
@@ -10705,7 +10705,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C788">
@@ -10718,7 +10718,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C789">
@@ -10918,7 +10918,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C804">
@@ -11022,7 +11022,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C812">
@@ -11126,7 +11126,7 @@
     <row r="820">
       <c r="B820" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C820">
@@ -11139,7 +11139,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C821">
@@ -11321,7 +11321,7 @@
     <row r="835">
       <c r="B835" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C835">
@@ -11334,7 +11334,7 @@
     <row r="836">
       <c r="B836" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C836">
@@ -11373,7 +11373,7 @@
     <row r="839">
       <c r="B839" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C839">
@@ -11399,7 +11399,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C841">
@@ -11503,7 +11503,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C849">
@@ -11581,7 +11581,7 @@
     <row r="855">
       <c r="B855" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C855">
@@ -11802,7 +11802,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C872">
@@ -11854,7 +11854,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C876">
@@ -11932,7 +11932,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C882">
@@ -11997,7 +11997,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C887">
@@ -12023,7 +12023,7 @@
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C889">
@@ -12036,7 +12036,7 @@
     <row r="890">
       <c r="B890" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C890">
@@ -12101,7 +12101,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C895">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C916">
@@ -12405,7 +12405,7 @@
     <row r="918">
       <c r="B918" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C918">
@@ -12444,7 +12444,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C921">
@@ -12457,7 +12457,7 @@
     <row r="922">
       <c r="B922" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C922">
@@ -12483,7 +12483,7 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C924">
@@ -12509,7 +12509,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C926">
@@ -12542,7 +12542,7 @@
         <v>82</v>
       </c>
       <c r="D928">
-        <v>0.009316064530788457</v>
+        <v>0.009316064530788455</v>
       </c>
     </row>
     <row r="929">
@@ -12675,7 +12675,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C938">
@@ -12766,7 +12766,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C945">
@@ -12870,7 +12870,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C953">
@@ -12883,7 +12883,7 @@
     <row r="954">
       <c r="B954" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C954">
@@ -12935,7 +12935,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C958">
@@ -12974,7 +12974,7 @@
     <row r="961">
       <c r="B961" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C961">
@@ -12987,7 +12987,7 @@
     <row r="962">
       <c r="B962" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C962">
@@ -13000,7 +13000,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C963">
@@ -13013,7 +13013,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C964">
@@ -13509,7 +13509,7 @@
     <row r="1001">
       <c r="B1001" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1001">
@@ -13852,7 +13852,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1027">
@@ -14065,7 +14065,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1043">
@@ -14104,7 +14104,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1046">
@@ -14143,7 +14143,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1049">
@@ -14208,7 +14208,7 @@
     <row r="1054">
       <c r="B1054" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1054">
@@ -14312,7 +14312,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1062">
@@ -14408,7 +14408,7 @@
     <row r="1069">
       <c r="B1069" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1069">
@@ -14460,7 +14460,7 @@
     <row r="1073">
       <c r="B1073" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1073">
@@ -14551,7 +14551,7 @@
     <row r="1080">
       <c r="B1080" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1080">
@@ -14564,7 +14564,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1081">
@@ -14720,7 +14720,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1093">
@@ -14733,7 +14733,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1094">
@@ -14889,7 +14889,7 @@
     <row r="1106">
       <c r="B1106" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1106">
@@ -14902,7 +14902,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1107">
@@ -14915,7 +14915,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1108">
@@ -14954,7 +14954,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1111">
@@ -14967,7 +14967,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1112">
@@ -14980,7 +14980,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1113">
@@ -15097,7 +15097,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1122">
@@ -15149,7 +15149,7 @@
     <row r="1126">
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1126">
@@ -15175,7 +15175,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1128">
@@ -15201,7 +15201,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1130">
@@ -15344,7 +15344,7 @@
     <row r="1141">
       <c r="B1141" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1141">
@@ -15396,7 +15396,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1145">
@@ -15409,7 +15409,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1146">
@@ -15448,7 +15448,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1149">
@@ -15526,7 +15526,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1155">
@@ -15539,7 +15539,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1156">
@@ -15786,7 +15786,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1175">
@@ -15929,7 +15929,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1186">
@@ -16368,7 +16368,7 @@
     <row r="1219">
       <c r="B1219" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1219">
@@ -16381,7 +16381,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1220">
@@ -16394,7 +16394,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1221">
@@ -16485,7 +16485,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1228">
@@ -16498,7 +16498,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1229">
@@ -16524,7 +16524,7 @@
     <row r="1231">
       <c r="B1231" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1231">
@@ -16550,7 +16550,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1233">
@@ -16649,41 +16649,6 @@
       </c>
       <c r="D1240">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
